--- a/QA4AI Interviewees.xlsx
+++ b/QA4AI Interviewees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Desktop/QA4AI-Replication-Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25F0606-9998-824C-824E-B734BBB0DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF56820-CFF8-9A4D-AFB9-B06B44B00A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="9100" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="replication" sheetId="2" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>OSS vulnerability Researcher</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>NLP, Business Intelligence Provider</t>
   </si>
   <si>
-    <t>Applied Scientist</t>
-  </si>
-  <si>
     <t>Ads, Customer Friction Point</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t>Risk Control</t>
-  </si>
-  <si>
-    <t>CV Researcher</t>
   </si>
   <si>
     <t>Deepfake Detection</t>
@@ -195,9 +186,6 @@
   </si>
   <si>
     <t>Small</t>
-  </si>
-  <si>
-    <t>NLP Researcher</t>
   </si>
   <si>
     <t>Programing Lang Experienced</t>
@@ -213,6 +201,22 @@
   </si>
   <si>
     <t>SE (Ming Software Repo) Code clone, Code fix</t>
+  </si>
+  <si>
+    <t>OSS vulnerability Industry Researcher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applied Industry Scientist</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV Industry Researcher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP Industry Researcher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,14 +522,16 @@
   </sheetPr>
   <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
@@ -565,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -574,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -668,25 +674,25 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>1</v>
@@ -721,22 +727,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -745,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -775,21 +781,21 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -798,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="b">
         <v>1</v>
@@ -839,37 +845,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -898,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>0</v>
@@ -916,13 +922,13 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -957,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>1</v>
@@ -975,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>1</v>
@@ -1016,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6" t="b">
         <v>0</v>
@@ -1028,7 +1034,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="b">
         <v>1</v>
@@ -1063,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>0</v>
@@ -1081,7 +1087,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="b">
         <v>1</v>
@@ -1116,16 +1122,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6" t="b">
         <v>0</v>
@@ -1140,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1169,16 +1175,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
@@ -1187,7 +1193,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="b">
         <v>1</v>
@@ -1228,10 +1234,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6" t="b">
         <v>0</v>
@@ -1281,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>1</v>
@@ -1329,7 +1335,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1340,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>1</v>
@@ -1352,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
@@ -1364,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1388,21 +1394,21 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>1</v>
@@ -1411,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>15</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
